--- a/medicine/Enfance/Jacques_Goldstyn/Jacques_Goldstyn.xlsx
+++ b/medicine/Enfance/Jacques_Goldstyn/Jacques_Goldstyn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Goldstyn, né en 1958 à Saint-Eugène d’Argentenay, dans la région du Saguenay-Lac-Saint-Jean, est un auteur et illustrateur de livres jeunesse québécois. Il reçoit à deux reprises le Prix du livre jeunesse des bibliothèques de Montréal[1],[2]. Il est caricaturiste au journal The Gazette sous le nom de plume Boris[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Goldstyn, né en 1958 à Saint-Eugène d’Argentenay, dans la région du Saguenay-Lac-Saint-Jean, est un auteur et illustrateur de livres jeunesse québécois. Il reçoit à deux reprises le Prix du livre jeunesse des bibliothèques de Montréal,. Il est caricaturiste au journal The Gazette sous le nom de plume Boris.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Goldstyn est diplômé de l’Université de Montréal en géologie. Dans un premier temps, il exerce la géologie pétrolière en Gaspésie, en Abitibi-Témiscamingue et en Alberta[4].
-En 1981, il amorce sa carrière d'illustrateur avec un premier livre Le Petit Débrouillard. Il collabore avec les revues Quatre Temps, Québec Oiseaux et Relations. Il est également caricaturiste pour le journal montréalais anglophone The Gazette et collabore au magazine Croc[5].
-En 2017, il remporte le Prix du Gouverneur général pour l'album Azadah[6].
-De notoriété internationale, Jacques Goldstyn a participé au premier salon littérature jeunesse du Nord-Ouest américain, Litt. Jeunesse[7],[8], organisé à Seattle, aux Etats-Unis, par l’association Made in France en 2021.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Goldstyn est diplômé de l’Université de Montréal en géologie. Dans un premier temps, il exerce la géologie pétrolière en Gaspésie, en Abitibi-Témiscamingue et en Alberta.
+En 1981, il amorce sa carrière d'illustrateur avec un premier livre Le Petit Débrouillard. Il collabore avec les revues Quatre Temps, Québec Oiseaux et Relations. Il est également caricaturiste pour le journal montréalais anglophone The Gazette et collabore au magazine Croc.
+En 2017, il remporte le Prix du Gouverneur général pour l'album Azadah.
+De notoriété internationale, Jacques Goldstyn a participé au premier salon littérature jeunesse du Nord-Ouest américain, Litt. Jeunesse organisé à Seattle, aux Etats-Unis, par l’association Made in France en 2021.  
 </t>
         </is>
       </c>
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature d'enfance et de jeunesse
-Séries Les Débrouillards / Professeur Scientifix
-Le Petit Débrouillard : 66 expériences faciles à réaliser ! par le professeur Scientifix, Québec Science Editeur, 1982
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Séries Les Débrouillards / Professeur Scientifix</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Petit Débrouillard : 66 expériences faciles à réaliser ! par le professeur Scientifix, Québec Science Editeur, 1982
 Jardinez avec le professeur Scientifix : des expériences pour toutes les saisons (en collaboration avec Huguette Beauchamp-Richards), Québec Science Editeur, 1982
 66 nouvelles expériences pour les petits débrouillards, Québec Science Editeur, 1983
 Les Petits Débrouillards : 41 expériences faciles à réaliser par le professeur Scientifix , Bélin, 1984
@@ -565,18 +587,132 @@
 Les Expériences des Débrouillards 2 : 40 expériences excitantes, Éditions Les Débrouillards, 2006
 Minuit moins quart les Débrouillards !, Bayard, 2007
 Débrouillardises ! : 30 ans d'humour avec la bande des Débrouillards, Bayard, 2009
-Pas de bagarre les Débrouillards !, Bayard, 2014
-Séries Van l’inventeur
-Van l’inventeur, Bayard, 2005
+Pas de bagarre les Débrouillards !, Bayard, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Goldstyn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Goldstyn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Séries Van l’inventeur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Van l’inventeur, Bayard, 2005
 Ça va barder !, Bayard, 2008
 Il m'en faut un !, Bayard, 2012
 Le Dragon vert : l'enfance de Van, Bayard, 2015
-C'est l'invention qui compte, Bayard, 2017
-Séries Les Aventures de Hugo et Marjo
-Pince sans rire, Bayard, 2008
-C'est du gâteau !, Bayard, 2012
-Autres ouvrages de littérature d'enfance et de jeunesse
-Lâche pas la grenouille !, Héritage jeunesse, 1996
+C'est l'invention qui compte, Bayard, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Goldstyn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Goldstyn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Séries Les Aventures de Hugo et Marjo</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pince sans rire, Bayard, 2008
+C'est du gâteau !, Bayard, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Goldstyn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Goldstyn</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lâche pas la grenouille !, Héritage jeunesse, 1996
 La Science morte de rire, Multimondes, 2003
 100 choses à faire dans sa vie, Bayard, 2012
 Le Petit Tabarnak, éd. La Pastèque, 2013
@@ -591,50 +727,52 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jacques_Goldstyn</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Goldstyn</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lauréat du prix Michael-Smith pour la promotion des sciences 2000[9]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lauréat du prix Michael-Smith pour la promotion des sciences 2000
 Finaliste au Prix du Gouverneur général 2015 - catégorie Littérature jeunesse – illustration pour L'Arbragan
 2015 : Lauréat du Prix Jean-Guy-Lemay du Xe Festival 1001 Visages de la caricature, pour l’ensemble de son oeuvre en bande dessinée, Val-David
-Prix jeunesse des libraires du Québec 2015[10] – catégorie 6-11 ans - Québec, pour L'Arbragan
+Prix jeunesse des libraires du Québec 2015 – catégorie 6-11 ans - Québec, pour L'Arbragan
 Prix Sorcières 2016, catégorie Premières lectures,  L'Arbragan
 Prix TD de littérature canadienne pour l'enfance et la jeunesse 2016,  L'Arbragan
 Prix du livre jeunesse des Bibliothèques de Montréal 2016,  L'Arbragan
 Prix du livre jeunesse des Bibliothèques de Montréal 2017, Azadah
 Prix du Gouverneur général 2017 - catégorie Littérature jeunesse – illustration, Azadah
 Finaliste Prix du Gouverneur général : littérature jeunesse de langue française - illustration 2018  pour Jules et Jim : frères d'armes
-Lauréat Prix jeunesse des libraires du Québec 2020[11] – catégorie 6-11 ans - Québec, pour Les étoiles
-Finaliste du Prix Espiègle 2020[12], catégorie primaire (5 à 11 ans), pour Les étoiles
- Sélection pour le Prix commémoratif Astrid-Lindgren en 2021[13] et en 2022[14]
-Lauréat Prix Alvine-Bélisle 2021[15]
-Finaliste Prix du Gouverneur général : littérature jeunesse de langue française - illustration 2021[16] pour Le Tricot
-(international) « Honour List » 2022[17] de l' IBBY pour Les étoiles
-Finaliste Prix illustration jeunesse du Salon du livre de Trois-Rivières 2023[18], Catégorie Album, pour Le monde de Maxime
-Prix d'Artiste pour la paix 2023[19]</t>
+Lauréat Prix jeunesse des libraires du Québec 2020 – catégorie 6-11 ans - Québec, pour Les étoiles
+Finaliste du Prix Espiègle 2020, catégorie primaire (5 à 11 ans), pour Les étoiles
+ Sélection pour le Prix commémoratif Astrid-Lindgren en 2021 et en 2022
+Lauréat Prix Alvine-Bélisle 2021
+Finaliste Prix du Gouverneur général : littérature jeunesse de langue française - illustration 2021 pour Le Tricot
+(international) « Honour List » 2022 de l' IBBY pour Les étoiles
+Finaliste Prix illustration jeunesse du Salon du livre de Trois-Rivières 2023, Catégorie Album, pour Le monde de Maxime
+Prix d'Artiste pour la paix 2023</t>
         </is>
       </c>
     </row>
